--- a/grammar_2.xlsx
+++ b/grammar_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="obnMnpotj9VI85gbJEd0SOmSMHQwBHltSaWfwGQMpl41PHNB9qbWJsIGKc/Ryayigx6AlO0FDBE3HSl6fShRsg==" workbookSaltValue="Zv4+qxDkNs3cWo3nteW/bA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Lfm+3EEzGboPgts8HC/espGIRmBT9TQLzlEBS4OWbZr3eIT/1H6qGTgguEgy1TjqNozokrssedWJQIteWUBn6g==" workbookSaltValue="XUeRXRcPVQNA5OVaTzi5sA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="266">
   <si>
     <t>head</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,6 +1065,42 @@
   </si>
   <si>
     <t>weren't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도부사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재진행형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부정대명사와 수량형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1471,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1466,8 +1502,11 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1498,8 +1537,11 @@
       <c r="J2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1530,8 +1572,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1562,8 +1607,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1594,8 +1642,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1626,8 +1677,11 @@
       <c r="J6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1658,8 +1712,11 @@
       <c r="J7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1690,8 +1747,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1722,8 +1782,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1754,8 +1817,11 @@
       <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1786,8 +1852,11 @@
       <c r="J11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1818,8 +1887,11 @@
       <c r="J12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1850,8 +1922,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1882,8 +1957,11 @@
       <c r="J14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1914,8 +1992,11 @@
       <c r="J15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1946,8 +2027,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1978,8 +2062,11 @@
       <c r="J17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="J18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2042,8 +2132,11 @@
       <c r="J19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2074,8 +2167,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2106,8 +2202,11 @@
       <c r="J21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2138,8 +2237,11 @@
       <c r="J22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2170,8 +2272,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2202,8 +2307,11 @@
       <c r="J24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2234,8 +2342,11 @@
       <c r="J25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2266,8 +2377,11 @@
       <c r="J26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2298,8 +2412,11 @@
       <c r="J27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="J28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2362,8 +2482,11 @@
       <c r="J29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2394,8 +2517,11 @@
       <c r="J30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2426,8 +2552,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2458,8 +2587,11 @@
       <c r="J32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2490,8 +2622,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2522,8 +2657,11 @@
       <c r="J34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2554,8 +2692,11 @@
       <c r="J35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2586,8 +2727,11 @@
       <c r="J36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2618,8 +2762,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2650,8 +2797,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2682,8 +2832,11 @@
       <c r="J39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2714,8 +2867,11 @@
       <c r="J40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2746,8 +2902,11 @@
       <c r="J41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2778,8 +2937,11 @@
       <c r="J42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2810,8 +2972,11 @@
       <c r="J43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2842,8 +3007,11 @@
       <c r="J44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2874,8 +3042,11 @@
       <c r="J45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2906,8 +3077,11 @@
       <c r="J46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2938,8 +3112,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2970,8 +3147,11 @@
       <c r="J48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3002,8 +3182,11 @@
       <c r="J49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3034,8 +3217,11 @@
       <c r="J50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3065,6 +3251,9 @@
       </c>
       <c r="J51">
         <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
